--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3545.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3545.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.800670747113523</v>
+        <v>0.531962513923645</v>
       </c>
       <c r="B1">
-        <v>1.935398441053374</v>
+        <v>0.5201823115348816</v>
       </c>
       <c r="C1">
-        <v>1.998987115697486</v>
+        <v>0.5403865575790405</v>
       </c>
       <c r="D1">
-        <v>2.665381481852464</v>
+        <v>0.7254739999771118</v>
       </c>
       <c r="E1">
-        <v>3.14210252240493</v>
+        <v>0.7880207896232605</v>
       </c>
     </row>
   </sheetData>
